--- a/Priolista.xlsx
+++ b/Priolista.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paavo\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83393CD1-9F34-4B95-BB62-F29C0BAC425B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F501962-900A-4113-B441-9909500E555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{F0008FDB-E47B-44ED-BBF8-9275E2D91D5D}"/>
+    <workbookView xWindow="57405" yWindow="7245" windowWidth="29190" windowHeight="15870" activeTab="1" xr2:uid="{F0008FDB-E47B-44ED-BBF8-9275E2D91D5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tehtävät" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
   <si>
     <t>Kuvaus</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Kaikki</t>
   </si>
   <si>
-    <t>PX + Dev1</t>
-  </si>
-  <si>
     <t>Käytettävyyden arviointi ja käyttäjätestaus</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t xml:space="preserve">Sovelluksen kokonaisvaltainen testaus </t>
   </si>
   <si>
-    <t>Kaikki tietävät mistä projektissa on kyse ja mitä tehdään seuraaavaksi ja miten</t>
-  </si>
-  <si>
     <t>Käytettävyys ominaisuuksista on tehty kattava lista</t>
   </si>
   <si>
@@ -157,12 +151,6 @@
     <t>Alustavan tyylin luominen</t>
   </si>
   <si>
-    <t>Jonkinlainen alustava tyyli on luotu nopeasti PX:n oman osaamisen perusteella</t>
-  </si>
-  <si>
-    <t>Ryhmän ulkopuolisilta henkilöiltä on kysytty käyttöliittymän ulkoasun informatiivisuutta. Ulkoasua on arvioitu ja parannusideoita on kirjattu</t>
-  </si>
-  <si>
     <t>Tuotantovalmiin tyylin luominen</t>
   </si>
   <si>
@@ -187,9 +175,6 @@
     <t>Tuotantoympäristön vaatimukset on selvitetty ja kirjattu ylös</t>
   </si>
   <si>
-    <t>Dokumentaation luominen rajapinnasta (vaaditut kentää ja esimerkki palautukset)</t>
-  </si>
-  <si>
     <t>Rajapinnan toiminnasta on luotu etukäteen selkeä dokumentaatio. Dokumentaatiossa on rajapintojen vaatimat kentät ja esimerkki palautukset.</t>
   </si>
   <si>
@@ -290,6 +275,24 @@
   </si>
   <si>
     <t>front end on wireframen mukainen</t>
+  </si>
+  <si>
+    <t>Kaikki tietävät mistä projektissa on kyse ja mitä tehdään seuraavaksi ja miten</t>
+  </si>
+  <si>
+    <t>Dokumentaation luominen rajapinnasta (vaaditut kentät ja esimerkki palautukset)</t>
+  </si>
+  <si>
+    <t>Ryhmän ulkopuolisilta henkilöiltä on kysytty käyttöliittymän ulkoasun informatiivisuutta. Ulkoasua on arvioitu ja parannusideoita on kirjattu.</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>UX + Dev1</t>
+  </si>
+  <si>
+    <t>Jonkinlainen alustava tyyli on luotu nopeasti UX:n oman osaamisen perusteella</t>
   </si>
 </sst>
 </file>
@@ -678,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF4B574-6F9D-48C6-A5F4-425D537E46AC}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -714,7 +717,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -725,24 +728,24 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -753,295 +756,295 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>9</v>
@@ -1050,12 +1053,12 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -1064,7 +1067,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CA4FC0-B740-42FB-BA28-472ABB154520}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -1109,7 +1112,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3">
         <v>11</v>
@@ -1118,40 +1121,40 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3">
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3">
         <v>12</v>
@@ -1160,66 +1163,66 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3">
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B7" s="3">
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B8" s="3">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3">
         <v>15</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -1228,7 +1231,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
